--- a/experiment_results/20201127_AGGREGATION_STDEV_NORMALIZATION1/Elevator/4wise/0.95_.xlsx
+++ b/experiment_results/20201127_AGGREGATION_STDEV_NORMALIZATION1/Elevator/4wise/0.95_.xlsx
@@ -495,19 +495,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -533,19 +533,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -571,19 +571,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -609,19 +609,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -647,19 +647,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -685,19 +685,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -723,19 +723,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -761,19 +761,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="F9">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -799,19 +799,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="C10">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="F10">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -837,19 +837,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -875,19 +875,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -913,19 +913,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -1040,19 +1040,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -1078,19 +1078,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -1116,19 +1116,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -1154,19 +1154,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -1192,19 +1192,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -1230,19 +1230,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -1268,19 +1268,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -1306,19 +1306,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -1344,19 +1344,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -1382,19 +1382,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -1420,19 +1420,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -1509,19 +1509,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -1547,19 +1547,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -1585,19 +1585,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -1623,19 +1623,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -1661,19 +1661,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -1699,19 +1699,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -1737,19 +1737,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -1775,19 +1775,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -1813,19 +1813,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -1851,19 +1851,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -1889,19 +1889,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -1927,19 +1927,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -2016,19 +2016,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -2054,19 +2054,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -2092,19 +2092,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>304</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -2130,19 +2130,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -2168,19 +2168,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F6">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -2206,19 +2206,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -2244,19 +2244,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -2282,19 +2282,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -2320,19 +2320,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -2358,19 +2358,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -2396,19 +2396,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -2434,19 +2434,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="F13">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -2523,19 +2523,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -2561,19 +2561,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -2599,19 +2599,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>304</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -2637,19 +2637,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -2675,19 +2675,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F6">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -2713,19 +2713,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -2751,19 +2751,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -2789,19 +2789,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -2827,19 +2827,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -2865,19 +2865,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -2903,19 +2903,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -2941,19 +2941,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="F13">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -3030,19 +3030,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -3068,19 +3068,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -3106,19 +3106,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -3144,19 +3144,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -3182,19 +3182,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -3220,19 +3220,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -3258,19 +3258,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -3296,19 +3296,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -3334,19 +3334,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -3372,19 +3372,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -3410,19 +3410,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -3448,19 +3448,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -3537,19 +3537,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -3575,19 +3575,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -3613,19 +3613,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -3651,19 +3651,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -3689,19 +3689,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -3727,19 +3727,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -3765,19 +3765,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -3803,19 +3803,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -3888,10 +3888,10 @@
         <v>284</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -3917,19 +3917,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -3955,19 +3955,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -4044,19 +4044,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -4082,19 +4082,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>434</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -4120,19 +4120,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -4158,19 +4158,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -4196,7 +4196,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -4205,7 +4205,7 @@
         <v>283</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -4234,7 +4234,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -4243,10 +4243,10 @@
         <v>247</v>
       </c>
       <c r="E7">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -4272,19 +4272,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -4310,19 +4310,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -4348,19 +4348,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>434</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -4386,19 +4386,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>284</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -4424,16 +4424,16 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -4462,19 +4462,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -4551,19 +4551,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -4589,19 +4589,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -4627,19 +4627,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -4665,19 +4665,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -4703,19 +4703,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -4741,19 +4741,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -4779,19 +4779,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -4817,19 +4817,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -4855,19 +4855,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -4893,19 +4893,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -4931,19 +4931,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -4969,19 +4969,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -5058,19 +5058,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -5096,19 +5096,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -5134,19 +5134,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -5172,19 +5172,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -5210,19 +5210,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -5248,19 +5248,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -5286,19 +5286,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -5324,19 +5324,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -5362,19 +5362,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -5400,19 +5400,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -5438,19 +5438,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -5476,19 +5476,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -5565,19 +5565,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -5603,19 +5603,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -5641,19 +5641,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -5679,19 +5679,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -5717,19 +5717,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -5755,19 +5755,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -5793,19 +5793,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -5831,19 +5831,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -5869,19 +5869,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -5907,19 +5907,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -5945,19 +5945,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -5983,19 +5983,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -6072,19 +6072,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -6110,19 +6110,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -6148,19 +6148,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -6186,19 +6186,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -6224,7 +6224,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -6233,10 +6233,10 @@
         <v>283</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -6262,19 +6262,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -6300,19 +6300,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -6338,19 +6338,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -6376,19 +6376,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -6414,19 +6414,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -6452,19 +6452,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -6490,19 +6490,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -6579,19 +6579,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -6617,19 +6617,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -6655,19 +6655,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -6693,19 +6693,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -6731,19 +6731,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -6769,19 +6769,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -6807,19 +6807,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -6845,19 +6845,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -6883,19 +6883,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -6921,19 +6921,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -6959,19 +6959,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -6997,19 +6997,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -7086,19 +7086,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -7124,19 +7124,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -7162,19 +7162,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -7200,19 +7200,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -7238,19 +7238,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -7276,19 +7276,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -7314,19 +7314,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -7352,19 +7352,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -7390,19 +7390,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -7428,19 +7428,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -7466,19 +7466,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -7504,19 +7504,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -7596,16 +7596,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -7631,19 +7631,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -7669,19 +7669,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -7707,19 +7707,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -7754,10 +7754,10 @@
         <v>283</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -7783,19 +7783,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -7821,19 +7821,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -7859,19 +7859,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>432</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -7897,19 +7897,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>439</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -7935,19 +7935,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -7973,19 +7973,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="F12">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -8011,19 +8011,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -8100,19 +8100,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -8138,19 +8138,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -8176,19 +8176,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -8214,19 +8214,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -8252,19 +8252,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -8290,19 +8290,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -8328,19 +8328,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -8366,19 +8366,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -8404,19 +8404,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>439</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -8442,19 +8442,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -8480,19 +8480,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -8518,19 +8518,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -8607,19 +8607,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -8645,19 +8645,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -8683,19 +8683,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -8721,19 +8721,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -8759,19 +8759,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -8797,19 +8797,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -8835,19 +8835,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -8873,19 +8873,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -8911,19 +8911,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -8987,19 +8987,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -9025,19 +9025,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -9114,19 +9114,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -9152,19 +9152,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -9190,19 +9190,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -9228,19 +9228,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -9266,19 +9266,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -9304,19 +9304,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -9342,19 +9342,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -9380,19 +9380,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -9418,19 +9418,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -9456,19 +9456,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -9494,19 +9494,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -9532,19 +9532,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -9621,19 +9621,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -9659,19 +9659,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -9697,19 +9697,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>317</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -9735,19 +9735,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -9773,7 +9773,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -9782,10 +9782,10 @@
         <v>283</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -9811,19 +9811,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -9849,19 +9849,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -9887,19 +9887,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -9925,19 +9925,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -9972,10 +9972,10 @@
         <v>284</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -10001,19 +10001,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -10039,19 +10039,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C13">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c r="F13">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -10128,19 +10128,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -10166,19 +10166,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -10204,19 +10204,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -10242,19 +10242,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -10280,19 +10280,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -10318,19 +10318,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -10356,19 +10356,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -10394,19 +10394,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -10432,19 +10432,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -10470,19 +10470,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -10508,19 +10508,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -10546,19 +10546,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -10635,19 +10635,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -10673,19 +10673,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -10711,19 +10711,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -10749,19 +10749,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -10787,19 +10787,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -10825,19 +10825,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -10863,19 +10863,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -10901,19 +10901,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -10939,19 +10939,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -10977,19 +10977,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -11015,19 +11015,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -11053,19 +11053,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -11142,19 +11142,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -11180,19 +11180,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -11218,19 +11218,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -11256,19 +11256,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -11294,19 +11294,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -11332,19 +11332,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -11370,19 +11370,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -11408,19 +11408,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -11446,19 +11446,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -11522,19 +11522,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -11560,19 +11560,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -11649,19 +11649,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -11687,19 +11687,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -11725,19 +11725,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -11763,19 +11763,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -11801,19 +11801,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -11839,19 +11839,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -11877,19 +11877,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -11915,19 +11915,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>432</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -11953,19 +11953,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>439</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -11991,19 +11991,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -12029,19 +12029,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -12067,19 +12067,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -12156,19 +12156,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -12194,19 +12194,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -12232,19 +12232,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -12270,19 +12270,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -12308,19 +12308,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -12346,19 +12346,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -12384,19 +12384,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -12422,19 +12422,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -12460,19 +12460,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -12498,10 +12498,10 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>284</v>
@@ -12536,19 +12536,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -12574,19 +12574,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -12663,19 +12663,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -12701,19 +12701,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -12739,19 +12739,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -12777,19 +12777,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -12815,19 +12815,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -12853,19 +12853,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -12891,19 +12891,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -12929,19 +12929,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="F9">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -12967,19 +12967,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="C10">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="F10">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -13005,19 +13005,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -13043,19 +13043,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -13081,19 +13081,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -13170,19 +13170,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -13208,19 +13208,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -13246,19 +13246,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -13284,19 +13284,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -13322,19 +13322,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -13360,19 +13360,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -13398,19 +13398,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -13436,19 +13436,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -13474,19 +13474,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -13521,10 +13521,10 @@
         <v>284</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -13550,19 +13550,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -13588,19 +13588,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -13677,19 +13677,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -13715,19 +13715,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>434</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -13753,19 +13753,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -13791,19 +13791,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -13829,7 +13829,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -13838,7 +13838,7 @@
         <v>283</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -13867,7 +13867,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -13876,10 +13876,10 @@
         <v>247</v>
       </c>
       <c r="E7">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -13905,19 +13905,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -13943,19 +13943,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -13981,19 +13981,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>434</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -14019,19 +14019,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>284</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -14057,16 +14057,16 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -14095,19 +14095,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -14184,19 +14184,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -14222,19 +14222,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -14260,19 +14260,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -14298,19 +14298,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -14336,19 +14336,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -14374,19 +14374,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -14412,19 +14412,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -14450,19 +14450,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -14488,19 +14488,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -14526,19 +14526,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -14564,19 +14564,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -14602,19 +14602,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -14691,19 +14691,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F2">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -14729,19 +14729,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -14767,19 +14767,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -14805,19 +14805,19 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>439</v>
       </c>
       <c r="G5">
         <v>439</v>
@@ -14843,19 +14843,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -14881,19 +14881,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="F7">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -14919,19 +14919,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -14957,19 +14957,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -14995,19 +14995,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -15033,19 +15033,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>284</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -15071,19 +15071,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -15109,19 +15109,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="F13">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="G13">
         <v>447</v>
@@ -15198,19 +15198,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>449</v>
@@ -15236,19 +15236,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="G3">
         <v>439</v>
@@ -15274,19 +15274,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>246</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>449</v>
@@ -15350,19 +15350,19 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>283</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>439</v>
@@ -15388,19 +15388,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>247</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>449</v>
@@ -15426,19 +15426,19 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>269</v>
       </c>
       <c r="E8">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>439</v>
@@ -15464,19 +15464,19 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>224</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>439</v>
@@ -15502,19 +15502,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>219</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>439</v>
@@ -15549,10 +15549,10 @@
         <v>284</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>439</v>
@@ -15578,19 +15578,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>196</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>437</v>
@@ -15616,19 +15616,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>236</v>
       </c>
       <c r="E13">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>447</v>
